--- a/C4-1.xlsx
+++ b/C4-1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21908" uniqueCount="10450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23612" uniqueCount="11003">
   <si>
     <t>dInstal</t>
   </si>
@@ -31362,6 +31362,1665 @@
   </si>
   <si>
     <t>-287.82000000000005</t>
+  </si>
+  <si>
+    <t>2023-06-30 19:00:06</t>
+  </si>
+  <si>
+    <t>-278.70000000000005</t>
+  </si>
+  <si>
+    <t>2023-06-30 20:00:05</t>
+  </si>
+  <si>
+    <t>-271.34000000000003</t>
+  </si>
+  <si>
+    <t>2023-06-30 21:00:06</t>
+  </si>
+  <si>
+    <t>-261.43000000000006</t>
+  </si>
+  <si>
+    <t>2023-06-30 22:00:08</t>
+  </si>
+  <si>
+    <t>-251.01000000000005</t>
+  </si>
+  <si>
+    <t>2023-06-30 23:00:06</t>
+  </si>
+  <si>
+    <t>-242.83000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:06</t>
+  </si>
+  <si>
+    <t>-229.54000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:04</t>
+  </si>
+  <si>
+    <t>-225.00000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:05</t>
+  </si>
+  <si>
+    <t>-223.29000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:06</t>
+  </si>
+  <si>
+    <t>-219.86</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:06</t>
+  </si>
+  <si>
+    <t>-218.70000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:06</t>
+  </si>
+  <si>
+    <t>-225.60000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:05</t>
+  </si>
+  <si>
+    <t>-237.42000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:05</t>
+  </si>
+  <si>
+    <t>-257.71000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:05</t>
+  </si>
+  <si>
+    <t>-266.01000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:06</t>
+  </si>
+  <si>
+    <t>-264.53000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:04</t>
+  </si>
+  <si>
+    <t>-265.95000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:06</t>
+  </si>
+  <si>
+    <t>-275.90000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:06</t>
+  </si>
+  <si>
+    <t>-290.95000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:05</t>
+  </si>
+  <si>
+    <t>-284.21000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:07</t>
+  </si>
+  <si>
+    <t>-282.49000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:07</t>
+  </si>
+  <si>
+    <t>-266.34000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:06</t>
+  </si>
+  <si>
+    <t>-281.25000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:06</t>
+  </si>
+  <si>
+    <t>-298.02000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:05</t>
+  </si>
+  <si>
+    <t>34.31</t>
+  </si>
+  <si>
+    <t>-300.97</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:05</t>
+  </si>
+  <si>
+    <t>-295.8</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:06</t>
+  </si>
+  <si>
+    <t>-293.14000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:05</t>
+  </si>
+  <si>
+    <t>-290.14000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:06</t>
+  </si>
+  <si>
+    <t>-284.46000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:05</t>
+  </si>
+  <si>
+    <t>35.13</t>
+  </si>
+  <si>
+    <t>-276.07000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:08</t>
+  </si>
+  <si>
+    <t>34.88</t>
+  </si>
+  <si>
+    <t>-272.64000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:05</t>
+  </si>
+  <si>
+    <t>-269.04</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:35</t>
+  </si>
+  <si>
+    <t>-262.97</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:06</t>
+  </si>
+  <si>
+    <t>-259.98</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:06</t>
+  </si>
+  <si>
+    <t>-249.77000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:35</t>
+  </si>
+  <si>
+    <t>-245.69000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:05</t>
+  </si>
+  <si>
+    <t>-271.20000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:00:06</t>
+  </si>
+  <si>
+    <t>-264.25000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:05</t>
+  </si>
+  <si>
+    <t>-250.21000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:05</t>
+  </si>
+  <si>
+    <t>-251.47000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:06</t>
+  </si>
+  <si>
+    <t>-257.06000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:06</t>
+  </si>
+  <si>
+    <t>-275.01000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:06</t>
+  </si>
+  <si>
+    <t>-280.68000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:07</t>
+  </si>
+  <si>
+    <t>-283.44000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:06</t>
+  </si>
+  <si>
+    <t>-283.13000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:06</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>-281.33000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:06</t>
+  </si>
+  <si>
+    <t>36.13</t>
+  </si>
+  <si>
+    <t>-281.19000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:06</t>
+  </si>
+  <si>
+    <t>-276.18000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:05</t>
+  </si>
+  <si>
+    <t>-274.41</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:06</t>
+  </si>
+  <si>
+    <t>35.81</t>
+  </si>
+  <si>
+    <t>-270.18000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:05</t>
+  </si>
+  <si>
+    <t>-265.40000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:06</t>
+  </si>
+  <si>
+    <t>-261.82000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:35</t>
+  </si>
+  <si>
+    <t>35.56</t>
+  </si>
+  <si>
+    <t>-256.23</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:06</t>
+  </si>
+  <si>
+    <t>-257.98</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:06</t>
+  </si>
+  <si>
+    <t>-263.22</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:06</t>
+  </si>
+  <si>
+    <t>-260.93000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:02:30</t>
+  </si>
+  <si>
+    <t>-263.21000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-04 17:00:23</t>
+  </si>
+  <si>
+    <t>35.94</t>
+  </si>
+  <si>
+    <t>-269.53000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:05</t>
+  </si>
+  <si>
+    <t>-274.48</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:06</t>
+  </si>
+  <si>
+    <t>36.38</t>
+  </si>
+  <si>
+    <t>-281.83000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:06</t>
+  </si>
+  <si>
+    <t>-284.42</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:06</t>
+  </si>
+  <si>
+    <t>-287.38000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:06</t>
+  </si>
+  <si>
+    <t>-285.33000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:06</t>
+  </si>
+  <si>
+    <t>36.94</t>
+  </si>
+  <si>
+    <t>-280.49000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:05</t>
+  </si>
+  <si>
+    <t>-277.08000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:36</t>
+  </si>
+  <si>
+    <t>36.63</t>
+  </si>
+  <si>
+    <t>-275.00000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:06</t>
+  </si>
+  <si>
+    <t>36.44</t>
+  </si>
+  <si>
+    <t>-265.63000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:06</t>
+  </si>
+  <si>
+    <t>36.25</t>
+  </si>
+  <si>
+    <t>-260.51000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:08</t>
+  </si>
+  <si>
+    <t>-232.58000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:06</t>
+  </si>
+  <si>
+    <t>-216.77000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:06</t>
+  </si>
+  <si>
+    <t>-201.04000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:00:11</t>
+  </si>
+  <si>
+    <t>-176.55</t>
+  </si>
+  <si>
+    <t>2023-07-05 16:00:05</t>
+  </si>
+  <si>
+    <t>-172.57000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:06</t>
+  </si>
+  <si>
+    <t>-173.35000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:05</t>
+  </si>
+  <si>
+    <t>-183.16000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:06</t>
+  </si>
+  <si>
+    <t>-191.07000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:05</t>
+  </si>
+  <si>
+    <t>-210.50000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:05</t>
+  </si>
+  <si>
+    <t>-232.65000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:06</t>
+  </si>
+  <si>
+    <t>-281.70000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-06 14:03:56</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 17:00:42</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:38</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:05</t>
+  </si>
+  <si>
+    <t>34.94</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:36</t>
+  </si>
+  <si>
+    <t>-295.51000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:06</t>
+  </si>
+  <si>
+    <t>-285.77000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:07</t>
+  </si>
+  <si>
+    <t>-298.29</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:06</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>-293.32000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:04</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>-278.65000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:07</t>
+  </si>
+  <si>
+    <t>-279.94000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:05</t>
+  </si>
+  <si>
+    <t>-299.59000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:07</t>
+  </si>
+  <si>
+    <t>37.06</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:07</t>
+  </si>
+  <si>
+    <t>-299.71000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:36</t>
+  </si>
+  <si>
+    <t>-294.71000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:07</t>
+  </si>
+  <si>
+    <t>-289.37000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:05</t>
+  </si>
+  <si>
+    <t>-289.46000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:06</t>
+  </si>
+  <si>
+    <t>-294.04</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:37</t>
+  </si>
+  <si>
+    <t>-294.14000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:05</t>
+  </si>
+  <si>
+    <t>-296.21000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:07</t>
+  </si>
+  <si>
+    <t>-296.45000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:07</t>
+  </si>
+  <si>
+    <t>-300.51000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:08</t>
+  </si>
+  <si>
+    <t>-295.11000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:06</t>
+  </si>
+  <si>
+    <t>-300.86000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:36</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:39</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:05</t>
+  </si>
+  <si>
+    <t>36.75</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:38</t>
+  </si>
+  <si>
+    <t>37.44</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:39</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:36</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:39</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:04</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:37</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:39</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:10</t>
+  </si>
+  <si>
+    <t>-300.3</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:06</t>
+  </si>
+  <si>
+    <t>-279.07000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:05</t>
+  </si>
+  <si>
+    <t>-255.97000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:07</t>
+  </si>
+  <si>
+    <t>-243.41000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:38</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:38</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:40</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-25 13:00:31</t>
+  </si>
+  <si>
+    <t>2023-07-25 16:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-25 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 21:00:41</t>
+  </si>
+  <si>
+    <t>2023-07-26 01:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-26 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:09</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:07</t>
+  </si>
+  <si>
+    <t>-282.58000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:05</t>
+  </si>
+  <si>
+    <t>-282.47</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:07</t>
+  </si>
+  <si>
+    <t>-250.05</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:06</t>
+  </si>
+  <si>
+    <t>-249.78000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:06</t>
+  </si>
+  <si>
+    <t>-259.81000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:06</t>
+  </si>
+  <si>
+    <t>-232.93000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:08</t>
+  </si>
+  <si>
+    <t>-271.54</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:42</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:08</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:41</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:39</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:36</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:38</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:37</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:39</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:37</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:07</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:08</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:05</t>
   </si>
 </sst>
 </file>
@@ -31406,7 +33065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5477"/>
+  <dimension ref="A1:D5903"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108090,6 +109749,5970 @@
         <v>10449</v>
       </c>
     </row>
+    <row r="5478">
+      <c r="A5478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5478" t="s">
+        <v>10450</v>
+      </c>
+      <c r="C5478" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5478" t="s">
+        <v>10451</v>
+      </c>
+    </row>
+    <row r="5479">
+      <c r="A5479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5479" t="s">
+        <v>10452</v>
+      </c>
+      <c r="C5479" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5479" t="s">
+        <v>10453</v>
+      </c>
+    </row>
+    <row r="5480">
+      <c r="A5480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5480" t="s">
+        <v>10454</v>
+      </c>
+      <c r="C5480" t="s">
+        <v>10446</v>
+      </c>
+      <c r="D5480" t="s">
+        <v>10455</v>
+      </c>
+    </row>
+    <row r="5481">
+      <c r="A5481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5481" t="s">
+        <v>10456</v>
+      </c>
+      <c r="C5481" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5481" t="s">
+        <v>10457</v>
+      </c>
+    </row>
+    <row r="5482">
+      <c r="A5482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5482" t="s">
+        <v>10458</v>
+      </c>
+      <c r="C5482" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5482" t="s">
+        <v>10459</v>
+      </c>
+    </row>
+    <row r="5483">
+      <c r="A5483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5483" t="s">
+        <v>10460</v>
+      </c>
+      <c r="C5483" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5483" t="s">
+        <v>10461</v>
+      </c>
+    </row>
+    <row r="5484">
+      <c r="A5484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5484" t="s">
+        <v>10462</v>
+      </c>
+      <c r="C5484" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5484" t="s">
+        <v>10463</v>
+      </c>
+    </row>
+    <row r="5485">
+      <c r="A5485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5485" t="s">
+        <v>10464</v>
+      </c>
+      <c r="C5485" t="s">
+        <v>9616</v>
+      </c>
+      <c r="D5485" t="s">
+        <v>10465</v>
+      </c>
+    </row>
+    <row r="5486">
+      <c r="A5486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5486" t="s">
+        <v>10466</v>
+      </c>
+      <c r="C5486" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5486" t="s">
+        <v>10467</v>
+      </c>
+    </row>
+    <row r="5487">
+      <c r="A5487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5487" t="s">
+        <v>10468</v>
+      </c>
+      <c r="C5487" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5487" t="s">
+        <v>10469</v>
+      </c>
+    </row>
+    <row r="5488">
+      <c r="A5488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5488" t="s">
+        <v>10470</v>
+      </c>
+      <c r="C5488" t="s">
+        <v>789</v>
+      </c>
+      <c r="D5488" t="s">
+        <v>10471</v>
+      </c>
+    </row>
+    <row r="5489">
+      <c r="A5489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5489" t="s">
+        <v>10472</v>
+      </c>
+      <c r="C5489" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5489" t="s">
+        <v>10473</v>
+      </c>
+    </row>
+    <row r="5490">
+      <c r="A5490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5490" t="s">
+        <v>10474</v>
+      </c>
+      <c r="C5490" t="s">
+        <v>793</v>
+      </c>
+      <c r="D5490" t="s">
+        <v>10475</v>
+      </c>
+    </row>
+    <row r="5491">
+      <c r="A5491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5491" t="s">
+        <v>10476</v>
+      </c>
+      <c r="C5491" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5491" t="s">
+        <v>10477</v>
+      </c>
+    </row>
+    <row r="5492">
+      <c r="A5492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5492" t="s">
+        <v>10478</v>
+      </c>
+      <c r="C5492" t="s">
+        <v>921</v>
+      </c>
+      <c r="D5492" t="s">
+        <v>10479</v>
+      </c>
+    </row>
+    <row r="5493">
+      <c r="A5493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5493" t="s">
+        <v>10480</v>
+      </c>
+      <c r="C5493" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5493" t="s">
+        <v>10481</v>
+      </c>
+    </row>
+    <row r="5494">
+      <c r="A5494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5494" t="s">
+        <v>10482</v>
+      </c>
+      <c r="C5494" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5494" t="s">
+        <v>10483</v>
+      </c>
+    </row>
+    <row r="5495">
+      <c r="A5495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5495" t="s">
+        <v>10484</v>
+      </c>
+      <c r="C5495" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5495" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5496">
+      <c r="A5496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5496" t="s">
+        <v>10485</v>
+      </c>
+      <c r="C5496" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5496" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5497">
+      <c r="A5497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5497" t="s">
+        <v>10486</v>
+      </c>
+      <c r="C5497" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5497" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5498">
+      <c r="A5498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5498" t="s">
+        <v>10487</v>
+      </c>
+      <c r="C5498" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5498" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5499">
+      <c r="A5499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5499" t="s">
+        <v>10488</v>
+      </c>
+      <c r="C5499" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5499" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5500">
+      <c r="A5500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5500" t="s">
+        <v>10489</v>
+      </c>
+      <c r="C5500" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5500" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5501">
+      <c r="A5501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5501" t="s">
+        <v>10490</v>
+      </c>
+      <c r="C5501" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5501" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5502">
+      <c r="A5502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5502" t="s">
+        <v>10491</v>
+      </c>
+      <c r="C5502" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5502" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5503">
+      <c r="A5503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5503" t="s">
+        <v>10492</v>
+      </c>
+      <c r="C5503" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5503" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5504">
+      <c r="A5504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5504" t="s">
+        <v>10493</v>
+      </c>
+      <c r="C5504" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5504" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5505">
+      <c r="A5505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5505" t="s">
+        <v>10494</v>
+      </c>
+      <c r="C5505" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5505" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5506">
+      <c r="A5506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5506" t="s">
+        <v>10495</v>
+      </c>
+      <c r="C5506" t="s">
+        <v>780</v>
+      </c>
+      <c r="D5506" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5507">
+      <c r="A5507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5507" t="s">
+        <v>10496</v>
+      </c>
+      <c r="C5507" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5507" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5508">
+      <c r="A5508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5508" t="s">
+        <v>10497</v>
+      </c>
+      <c r="C5508" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5508" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5509">
+      <c r="A5509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5509" t="s">
+        <v>10498</v>
+      </c>
+      <c r="C5509" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5509" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5510">
+      <c r="A5510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5510" t="s">
+        <v>10499</v>
+      </c>
+      <c r="C5510" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5510" t="s">
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="5511">
+      <c r="A5511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5511" t="s">
+        <v>10501</v>
+      </c>
+      <c r="C5511" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5511" t="s">
+        <v>10502</v>
+      </c>
+    </row>
+    <row r="5512">
+      <c r="A5512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5512" t="s">
+        <v>10503</v>
+      </c>
+      <c r="C5512" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5512" t="s">
+        <v>10504</v>
+      </c>
+    </row>
+    <row r="5513">
+      <c r="A5513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5513" t="s">
+        <v>10505</v>
+      </c>
+      <c r="C5513" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5513" t="s">
+        <v>10506</v>
+      </c>
+    </row>
+    <row r="5514">
+      <c r="A5514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5514" t="s">
+        <v>10507</v>
+      </c>
+      <c r="C5514" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5514" t="s">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="5515">
+      <c r="A5515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5515" t="s">
+        <v>10509</v>
+      </c>
+      <c r="C5515" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5515" t="s">
+        <v>10510</v>
+      </c>
+    </row>
+    <row r="5516">
+      <c r="A5516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5516" t="s">
+        <v>10511</v>
+      </c>
+      <c r="C5516" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5516" t="s">
+        <v>10513</v>
+      </c>
+    </row>
+    <row r="5517">
+      <c r="A5517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5517" t="s">
+        <v>10514</v>
+      </c>
+      <c r="C5517" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5517" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5518">
+      <c r="A5518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5518" t="s">
+        <v>10515</v>
+      </c>
+      <c r="C5518" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5518" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5519">
+      <c r="A5519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5519" t="s">
+        <v>10516</v>
+      </c>
+      <c r="C5519" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5519" t="s">
+        <v>10517</v>
+      </c>
+    </row>
+    <row r="5520">
+      <c r="A5520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5520" t="s">
+        <v>10518</v>
+      </c>
+      <c r="C5520" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5520" t="s">
+        <v>10519</v>
+      </c>
+    </row>
+    <row r="5521">
+      <c r="A5521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5521" t="s">
+        <v>10520</v>
+      </c>
+      <c r="C5521" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5521" t="s">
+        <v>10521</v>
+      </c>
+    </row>
+    <row r="5522">
+      <c r="A5522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5522" t="s">
+        <v>10522</v>
+      </c>
+      <c r="C5522" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5522" t="s">
+        <v>10523</v>
+      </c>
+    </row>
+    <row r="5523">
+      <c r="A5523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5523" t="s">
+        <v>10524</v>
+      </c>
+      <c r="C5523" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5523" t="s">
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="5524">
+      <c r="A5524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5524" t="s">
+        <v>10527</v>
+      </c>
+      <c r="C5524" t="s">
+        <v>10528</v>
+      </c>
+      <c r="D5524" t="s">
+        <v>10529</v>
+      </c>
+    </row>
+    <row r="5525">
+      <c r="A5525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5525" t="s">
+        <v>10530</v>
+      </c>
+      <c r="C5525" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5525" t="s">
+        <v>10531</v>
+      </c>
+    </row>
+    <row r="5526">
+      <c r="A5526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5526" t="s">
+        <v>10532</v>
+      </c>
+      <c r="C5526" t="s">
+        <v>770</v>
+      </c>
+      <c r="D5526" t="s">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="5527">
+      <c r="A5527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5527" t="s">
+        <v>10534</v>
+      </c>
+      <c r="C5527" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5527" t="s">
+        <v>10535</v>
+      </c>
+    </row>
+    <row r="5528">
+      <c r="A5528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5528" t="s">
+        <v>10536</v>
+      </c>
+      <c r="C5528" t="s">
+        <v>10423</v>
+      </c>
+      <c r="D5528" t="s">
+        <v>10537</v>
+      </c>
+    </row>
+    <row r="5529">
+      <c r="A5529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5529" t="s">
+        <v>10538</v>
+      </c>
+      <c r="C5529" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5529" t="s">
+        <v>10539</v>
+      </c>
+    </row>
+    <row r="5530">
+      <c r="A5530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5530" t="s">
+        <v>10540</v>
+      </c>
+      <c r="C5530" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5530" t="s">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="5531">
+      <c r="A5531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5531" t="s">
+        <v>10542</v>
+      </c>
+      <c r="C5531" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5531" t="s">
+        <v>10543</v>
+      </c>
+    </row>
+    <row r="5532">
+      <c r="A5532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5532" t="s">
+        <v>10544</v>
+      </c>
+      <c r="C5532" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5532" t="s">
+        <v>10545</v>
+      </c>
+    </row>
+    <row r="5533">
+      <c r="A5533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5533" t="s">
+        <v>10546</v>
+      </c>
+      <c r="C5533" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5533" t="s">
+        <v>10547</v>
+      </c>
+    </row>
+    <row r="5534">
+      <c r="A5534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5534" t="s">
+        <v>10548</v>
+      </c>
+      <c r="C5534" t="s">
+        <v>773</v>
+      </c>
+      <c r="D5534" t="s">
+        <v>10549</v>
+      </c>
+    </row>
+    <row r="5535">
+      <c r="A5535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5535" t="s">
+        <v>10550</v>
+      </c>
+      <c r="C5535" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5535" t="s">
+        <v>10551</v>
+      </c>
+    </row>
+    <row r="5536">
+      <c r="A5536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5536" t="s">
+        <v>10552</v>
+      </c>
+      <c r="C5536" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5536" t="s">
+        <v>10553</v>
+      </c>
+    </row>
+    <row r="5537">
+      <c r="A5537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5537" t="s">
+        <v>10554</v>
+      </c>
+      <c r="C5537" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5537" t="s">
+        <v>10555</v>
+      </c>
+    </row>
+    <row r="5538">
+      <c r="A5538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5538" t="s">
+        <v>10556</v>
+      </c>
+      <c r="C5538" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5538" t="s">
+        <v>10557</v>
+      </c>
+    </row>
+    <row r="5539">
+      <c r="A5539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5539" t="s">
+        <v>10558</v>
+      </c>
+      <c r="C5539" t="s">
+        <v>10559</v>
+      </c>
+      <c r="D5539" t="s">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="5540">
+      <c r="A5540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5540" t="s">
+        <v>10561</v>
+      </c>
+      <c r="C5540" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5540" t="s">
+        <v>10563</v>
+      </c>
+    </row>
+    <row r="5541">
+      <c r="A5541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5541" t="s">
+        <v>10564</v>
+      </c>
+      <c r="C5541" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5541" t="s">
+        <v>10565</v>
+      </c>
+    </row>
+    <row r="5542">
+      <c r="A5542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5542" t="s">
+        <v>10566</v>
+      </c>
+      <c r="C5542" t="s">
+        <v>10559</v>
+      </c>
+      <c r="D5542" t="s">
+        <v>10567</v>
+      </c>
+    </row>
+    <row r="5543">
+      <c r="A5543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5543" t="s">
+        <v>10568</v>
+      </c>
+      <c r="C5543" t="s">
+        <v>10569</v>
+      </c>
+      <c r="D5543" t="s">
+        <v>10570</v>
+      </c>
+    </row>
+    <row r="5544">
+      <c r="A5544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5544" t="s">
+        <v>10571</v>
+      </c>
+      <c r="C5544" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5544" t="s">
+        <v>10572</v>
+      </c>
+    </row>
+    <row r="5545">
+      <c r="A5545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5545" t="s">
+        <v>10573</v>
+      </c>
+      <c r="C5545" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5545" t="s">
+        <v>10574</v>
+      </c>
+    </row>
+    <row r="5546">
+      <c r="A5546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5546" t="s">
+        <v>10575</v>
+      </c>
+      <c r="C5546" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5546" t="s">
+        <v>10577</v>
+      </c>
+    </row>
+    <row r="5547">
+      <c r="A5547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5547" t="s">
+        <v>10578</v>
+      </c>
+      <c r="C5547" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5547" t="s">
+        <v>10579</v>
+      </c>
+    </row>
+    <row r="5548">
+      <c r="A5548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5548" t="s">
+        <v>10580</v>
+      </c>
+      <c r="C5548" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5548" t="s">
+        <v>10581</v>
+      </c>
+    </row>
+    <row r="5549">
+      <c r="A5549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5549" t="s">
+        <v>10582</v>
+      </c>
+      <c r="C5549" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5549" t="s">
+        <v>10583</v>
+      </c>
+    </row>
+    <row r="5550">
+      <c r="A5550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5550" t="s">
+        <v>10584</v>
+      </c>
+      <c r="C5550" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5550" t="s">
+        <v>10585</v>
+      </c>
+    </row>
+    <row r="5551">
+      <c r="A5551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5551" t="s">
+        <v>10586</v>
+      </c>
+      <c r="C5551" t="s">
+        <v>10587</v>
+      </c>
+      <c r="D5551" t="s">
+        <v>10588</v>
+      </c>
+    </row>
+    <row r="5552">
+      <c r="A5552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5552" t="s">
+        <v>10589</v>
+      </c>
+      <c r="C5552" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5552" t="s">
+        <v>10590</v>
+      </c>
+    </row>
+    <row r="5553">
+      <c r="A5553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5553" t="s">
+        <v>10591</v>
+      </c>
+      <c r="C5553" t="s">
+        <v>10592</v>
+      </c>
+      <c r="D5553" t="s">
+        <v>10593</v>
+      </c>
+    </row>
+    <row r="5554">
+      <c r="A5554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5554" t="s">
+        <v>10594</v>
+      </c>
+      <c r="C5554" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5554" t="s">
+        <v>10595</v>
+      </c>
+    </row>
+    <row r="5555">
+      <c r="A5555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5555" t="s">
+        <v>10596</v>
+      </c>
+      <c r="C5555" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5555" t="s">
+        <v>10597</v>
+      </c>
+    </row>
+    <row r="5556">
+      <c r="A5556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5556" t="s">
+        <v>10598</v>
+      </c>
+      <c r="C5556" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5556" t="s">
+        <v>10599</v>
+      </c>
+    </row>
+    <row r="5557">
+      <c r="A5557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5557" t="s">
+        <v>10600</v>
+      </c>
+      <c r="C5557" t="s">
+        <v>10601</v>
+      </c>
+      <c r="D5557" t="s">
+        <v>10602</v>
+      </c>
+    </row>
+    <row r="5558">
+      <c r="A5558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5558" t="s">
+        <v>10603</v>
+      </c>
+      <c r="C5558" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5558" t="s">
+        <v>10604</v>
+      </c>
+    </row>
+    <row r="5559">
+      <c r="A5559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5559" t="s">
+        <v>10605</v>
+      </c>
+      <c r="C5559" t="s">
+        <v>10606</v>
+      </c>
+      <c r="D5559" t="s">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="5560">
+      <c r="A5560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5560" t="s">
+        <v>10608</v>
+      </c>
+      <c r="C5560" t="s">
+        <v>10609</v>
+      </c>
+      <c r="D5560" t="s">
+        <v>10610</v>
+      </c>
+    </row>
+    <row r="5561">
+      <c r="A5561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5561" t="s">
+        <v>10611</v>
+      </c>
+      <c r="C5561" t="s">
+        <v>10612</v>
+      </c>
+      <c r="D5561" t="s">
+        <v>10613</v>
+      </c>
+    </row>
+    <row r="5562">
+      <c r="A5562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5562" t="s">
+        <v>10614</v>
+      </c>
+      <c r="C5562" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5562" t="s">
+        <v>10615</v>
+      </c>
+    </row>
+    <row r="5563">
+      <c r="A5563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5563" t="s">
+        <v>10616</v>
+      </c>
+      <c r="C5563" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5563" t="s">
+        <v>10617</v>
+      </c>
+    </row>
+    <row r="5564">
+      <c r="A5564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5564" t="s">
+        <v>10618</v>
+      </c>
+      <c r="C5564" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5564" t="s">
+        <v>10619</v>
+      </c>
+    </row>
+    <row r="5565">
+      <c r="A5565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5565" t="s">
+        <v>10620</v>
+      </c>
+      <c r="C5565" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5565" t="s">
+        <v>10621</v>
+      </c>
+    </row>
+    <row r="5566">
+      <c r="A5566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5566" t="s">
+        <v>10622</v>
+      </c>
+      <c r="C5566" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5566" t="s">
+        <v>10623</v>
+      </c>
+    </row>
+    <row r="5567">
+      <c r="A5567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5567" t="s">
+        <v>10624</v>
+      </c>
+      <c r="C5567" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5567" t="s">
+        <v>10625</v>
+      </c>
+    </row>
+    <row r="5568">
+      <c r="A5568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5568" t="s">
+        <v>10626</v>
+      </c>
+      <c r="C5568" t="s">
+        <v>773</v>
+      </c>
+      <c r="D5568" t="s">
+        <v>10627</v>
+      </c>
+    </row>
+    <row r="5569">
+      <c r="A5569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5569" t="s">
+        <v>10628</v>
+      </c>
+      <c r="C5569" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5569" t="s">
+        <v>10629</v>
+      </c>
+    </row>
+    <row r="5570">
+      <c r="A5570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5570" t="s">
+        <v>10630</v>
+      </c>
+      <c r="C5570" t="s">
+        <v>10423</v>
+      </c>
+      <c r="D5570" t="s">
+        <v>10631</v>
+      </c>
+    </row>
+    <row r="5571">
+      <c r="A5571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5571" t="s">
+        <v>10632</v>
+      </c>
+      <c r="C5571" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5571" t="s">
+        <v>10633</v>
+      </c>
+    </row>
+    <row r="5572">
+      <c r="A5572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5572" t="s">
+        <v>10634</v>
+      </c>
+      <c r="C5572" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5572" t="s">
+        <v>10270</v>
+      </c>
+    </row>
+    <row r="5573">
+      <c r="A5573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5573" t="s">
+        <v>10635</v>
+      </c>
+      <c r="C5573" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5573" t="s">
+        <v>10636</v>
+      </c>
+    </row>
+    <row r="5574">
+      <c r="A5574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5574" t="s">
+        <v>10637</v>
+      </c>
+      <c r="C5574" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5574" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5575">
+      <c r="A5575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5575" t="s">
+        <v>10638</v>
+      </c>
+      <c r="C5575" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5575" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5576">
+      <c r="A5576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5576" t="s">
+        <v>10639</v>
+      </c>
+      <c r="C5576" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5576" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5577">
+      <c r="A5577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5577" t="s">
+        <v>10640</v>
+      </c>
+      <c r="C5577" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5577" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5578">
+      <c r="A5578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5578" t="s">
+        <v>10641</v>
+      </c>
+      <c r="C5578" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5578" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5579">
+      <c r="A5579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5579" t="s">
+        <v>10642</v>
+      </c>
+      <c r="C5579" t="s">
+        <v>9616</v>
+      </c>
+      <c r="D5579" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5580">
+      <c r="A5580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5580" t="s">
+        <v>10643</v>
+      </c>
+      <c r="C5580" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5580" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5581">
+      <c r="A5581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5581" t="s">
+        <v>10644</v>
+      </c>
+      <c r="C5581" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5581" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5582">
+      <c r="A5582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5582" t="s">
+        <v>10645</v>
+      </c>
+      <c r="C5582" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5582" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5583">
+      <c r="A5583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5583" t="s">
+        <v>10646</v>
+      </c>
+      <c r="C5583" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5583" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5584">
+      <c r="A5584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5584" t="s">
+        <v>10647</v>
+      </c>
+      <c r="C5584" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5584" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5585">
+      <c r="A5585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5585" t="s">
+        <v>10648</v>
+      </c>
+      <c r="C5585" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5585" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5586">
+      <c r="A5586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5586" t="s">
+        <v>10649</v>
+      </c>
+      <c r="C5586" t="s">
+        <v>718</v>
+      </c>
+      <c r="D5586" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5587">
+      <c r="A5587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5587" t="s">
+        <v>10650</v>
+      </c>
+      <c r="C5587" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5587" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5588">
+      <c r="A5588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5588" t="s">
+        <v>10651</v>
+      </c>
+      <c r="C5588" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5588" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5589">
+      <c r="A5589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5589" t="s">
+        <v>10652</v>
+      </c>
+      <c r="C5589" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5589" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5590">
+      <c r="A5590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5590" t="s">
+        <v>10653</v>
+      </c>
+      <c r="C5590" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5590" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5591">
+      <c r="A5591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5591" t="s">
+        <v>10654</v>
+      </c>
+      <c r="C5591" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5591" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5592">
+      <c r="A5592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5592" t="s">
+        <v>10655</v>
+      </c>
+      <c r="C5592" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5592" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5593">
+      <c r="A5593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5593" t="s">
+        <v>10656</v>
+      </c>
+      <c r="C5593" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5593" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5594">
+      <c r="A5594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5594" t="s">
+        <v>10658</v>
+      </c>
+      <c r="C5594" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5594" t="s">
+        <v>10659</v>
+      </c>
+    </row>
+    <row r="5595">
+      <c r="A5595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5595" t="s">
+        <v>10660</v>
+      </c>
+      <c r="C5595" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5595" t="s">
+        <v>10661</v>
+      </c>
+    </row>
+    <row r="5596">
+      <c r="A5596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5596" t="s">
+        <v>10662</v>
+      </c>
+      <c r="C5596" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5596" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5597">
+      <c r="A5597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5597" t="s">
+        <v>10663</v>
+      </c>
+      <c r="C5597" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5597" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5598">
+      <c r="A5598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5598" t="s">
+        <v>10664</v>
+      </c>
+      <c r="C5598" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5598" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5599">
+      <c r="A5599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5599" t="s">
+        <v>10665</v>
+      </c>
+      <c r="C5599" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5599" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5600">
+      <c r="A5600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5600" t="s">
+        <v>10666</v>
+      </c>
+      <c r="C5600" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5600" t="s">
+        <v>10667</v>
+      </c>
+    </row>
+    <row r="5601">
+      <c r="A5601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5601" t="s">
+        <v>10668</v>
+      </c>
+      <c r="C5601" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5601" t="s">
+        <v>10670</v>
+      </c>
+    </row>
+    <row r="5602">
+      <c r="A5602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5602" t="s">
+        <v>10671</v>
+      </c>
+      <c r="C5602" t="s">
+        <v>10672</v>
+      </c>
+      <c r="D5602" t="s">
+        <v>10673</v>
+      </c>
+    </row>
+    <row r="5603">
+      <c r="A5603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5603" t="s">
+        <v>10674</v>
+      </c>
+      <c r="C5603" t="s">
+        <v>10592</v>
+      </c>
+      <c r="D5603" t="s">
+        <v>10675</v>
+      </c>
+    </row>
+    <row r="5604">
+      <c r="A5604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5604" t="s">
+        <v>10676</v>
+      </c>
+      <c r="C5604" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5604" t="s">
+        <v>10677</v>
+      </c>
+    </row>
+    <row r="5605">
+      <c r="A5605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5605" t="s">
+        <v>10678</v>
+      </c>
+      <c r="C5605" t="s">
+        <v>10679</v>
+      </c>
+      <c r="D5605" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5606">
+      <c r="A5606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5606" t="s">
+        <v>10680</v>
+      </c>
+      <c r="C5606" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5606" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5607">
+      <c r="A5607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5607" t="s">
+        <v>10681</v>
+      </c>
+      <c r="C5607" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5607" t="s">
+        <v>10682</v>
+      </c>
+    </row>
+    <row r="5608">
+      <c r="A5608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5608" t="s">
+        <v>10683</v>
+      </c>
+      <c r="C5608" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5608" t="s">
+        <v>10684</v>
+      </c>
+    </row>
+    <row r="5609">
+      <c r="A5609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5609" t="s">
+        <v>10685</v>
+      </c>
+      <c r="C5609" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5609" t="s">
+        <v>10686</v>
+      </c>
+    </row>
+    <row r="5610">
+      <c r="A5610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5610" t="s">
+        <v>10687</v>
+      </c>
+      <c r="C5610" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5610" t="s">
+        <v>10688</v>
+      </c>
+    </row>
+    <row r="5611">
+      <c r="A5611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5611" t="s">
+        <v>10689</v>
+      </c>
+      <c r="C5611" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5611" t="s">
+        <v>10690</v>
+      </c>
+    </row>
+    <row r="5612">
+      <c r="A5612" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5612" t="s">
+        <v>10691</v>
+      </c>
+      <c r="C5612" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5612" t="s">
+        <v>10692</v>
+      </c>
+    </row>
+    <row r="5613">
+      <c r="A5613" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5613" t="s">
+        <v>10693</v>
+      </c>
+      <c r="C5613" t="s">
+        <v>10601</v>
+      </c>
+      <c r="D5613" t="s">
+        <v>10694</v>
+      </c>
+    </row>
+    <row r="5614">
+      <c r="A5614" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5614" t="s">
+        <v>10695</v>
+      </c>
+      <c r="C5614" t="s">
+        <v>10679</v>
+      </c>
+      <c r="D5614" t="s">
+        <v>10696</v>
+      </c>
+    </row>
+    <row r="5615">
+      <c r="A5615" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5615" t="s">
+        <v>10697</v>
+      </c>
+      <c r="C5615" t="s">
+        <v>10601</v>
+      </c>
+      <c r="D5615" t="s">
+        <v>10698</v>
+      </c>
+    </row>
+    <row r="5616">
+      <c r="A5616" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5616" t="s">
+        <v>10699</v>
+      </c>
+      <c r="C5616" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5616" t="s">
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="5617">
+      <c r="A5617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5617" t="s">
+        <v>10701</v>
+      </c>
+      <c r="C5617" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5617" t="s">
+        <v>10702</v>
+      </c>
+    </row>
+    <row r="5618">
+      <c r="A5618" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5618" t="s">
+        <v>10703</v>
+      </c>
+      <c r="C5618" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5618" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5619">
+      <c r="A5619" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5619" t="s">
+        <v>10704</v>
+      </c>
+      <c r="C5619" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5619" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5620">
+      <c r="A5620" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5620" t="s">
+        <v>10705</v>
+      </c>
+      <c r="C5620" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5620" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5621">
+      <c r="A5621" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5621" t="s">
+        <v>10706</v>
+      </c>
+      <c r="C5621" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5621" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5622">
+      <c r="A5622" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5622" t="s">
+        <v>10707</v>
+      </c>
+      <c r="C5622" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5622" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5623">
+      <c r="A5623" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5623" t="s">
+        <v>10708</v>
+      </c>
+      <c r="C5623" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5623" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5624">
+      <c r="A5624" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5624" t="s">
+        <v>10709</v>
+      </c>
+      <c r="C5624" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5624" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5625">
+      <c r="A5625" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5625" t="s">
+        <v>10710</v>
+      </c>
+      <c r="C5625" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5625" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5626">
+      <c r="A5626" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5626" t="s">
+        <v>10711</v>
+      </c>
+      <c r="C5626" t="s">
+        <v>10559</v>
+      </c>
+      <c r="D5626" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5627">
+      <c r="A5627" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5627" t="s">
+        <v>10712</v>
+      </c>
+      <c r="C5627" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5627" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5628">
+      <c r="A5628" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5628" t="s">
+        <v>10713</v>
+      </c>
+      <c r="C5628" t="s">
+        <v>10587</v>
+      </c>
+      <c r="D5628" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5629">
+      <c r="A5629" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5629" t="s">
+        <v>10714</v>
+      </c>
+      <c r="C5629" t="s">
+        <v>10715</v>
+      </c>
+      <c r="D5629" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5630">
+      <c r="A5630" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5630" t="s">
+        <v>10716</v>
+      </c>
+      <c r="C5630" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5630" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5631">
+      <c r="A5631" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5631" t="s">
+        <v>10717</v>
+      </c>
+      <c r="C5631" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5631" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5632">
+      <c r="A5632" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5632" t="s">
+        <v>10718</v>
+      </c>
+      <c r="C5632" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5632" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5633">
+      <c r="A5633" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5633" t="s">
+        <v>10719</v>
+      </c>
+      <c r="C5633" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5633" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5634">
+      <c r="A5634" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5634" t="s">
+        <v>10720</v>
+      </c>
+      <c r="C5634" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5634" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5635">
+      <c r="A5635" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5635" t="s">
+        <v>10721</v>
+      </c>
+      <c r="C5635" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5635" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5636">
+      <c r="A5636" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5636" t="s">
+        <v>10722</v>
+      </c>
+      <c r="C5636" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5636" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5637">
+      <c r="A5637" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5637" t="s">
+        <v>10723</v>
+      </c>
+      <c r="C5637" t="s">
+        <v>10724</v>
+      </c>
+      <c r="D5637" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5638">
+      <c r="A5638" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5638" t="s">
+        <v>10725</v>
+      </c>
+      <c r="C5638" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5638" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5639">
+      <c r="A5639" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5639" t="s">
+        <v>10726</v>
+      </c>
+      <c r="C5639" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5639" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5640">
+      <c r="A5640" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5640" t="s">
+        <v>10727</v>
+      </c>
+      <c r="C5640" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5640" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5641">
+      <c r="A5641" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5641" t="s">
+        <v>10728</v>
+      </c>
+      <c r="C5641" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5641" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5642">
+      <c r="A5642" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5642" t="s">
+        <v>10729</v>
+      </c>
+      <c r="C5642" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5642" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5643">
+      <c r="A5643" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5643" t="s">
+        <v>10730</v>
+      </c>
+      <c r="C5643" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5643" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5644">
+      <c r="A5644" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5644" t="s">
+        <v>10731</v>
+      </c>
+      <c r="C5644" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5644" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5645">
+      <c r="A5645" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5645" t="s">
+        <v>10732</v>
+      </c>
+      <c r="C5645" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5645" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5646">
+      <c r="A5646" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5646" t="s">
+        <v>10733</v>
+      </c>
+      <c r="C5646" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5646" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5647">
+      <c r="A5647" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5647" t="s">
+        <v>10734</v>
+      </c>
+      <c r="C5647" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5647" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5648">
+      <c r="A5648" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5648" t="s">
+        <v>10735</v>
+      </c>
+      <c r="C5648" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5648" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5649">
+      <c r="A5649" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5649" t="s">
+        <v>10736</v>
+      </c>
+      <c r="C5649" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5649" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5650">
+      <c r="A5650" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5650" t="s">
+        <v>10737</v>
+      </c>
+      <c r="C5650" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5650" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5651">
+      <c r="A5651" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5651" t="s">
+        <v>10738</v>
+      </c>
+      <c r="C5651" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5651" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5652">
+      <c r="A5652" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5652" t="s">
+        <v>10739</v>
+      </c>
+      <c r="C5652" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5652" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5653">
+      <c r="A5653" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5653" t="s">
+        <v>10740</v>
+      </c>
+      <c r="C5653" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5653" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5654">
+      <c r="A5654" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5654" t="s">
+        <v>10741</v>
+      </c>
+      <c r="C5654" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5654" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5655">
+      <c r="A5655" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5655" t="s">
+        <v>10742</v>
+      </c>
+      <c r="C5655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5655" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5656">
+      <c r="A5656" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5656" t="s">
+        <v>10743</v>
+      </c>
+      <c r="C5656" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5656" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5657">
+      <c r="A5657" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5657" t="s">
+        <v>10744</v>
+      </c>
+      <c r="C5657" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5657" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5658">
+      <c r="A5658" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5658" t="s">
+        <v>10745</v>
+      </c>
+      <c r="C5658" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5658" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5659">
+      <c r="A5659" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5659" t="s">
+        <v>10746</v>
+      </c>
+      <c r="C5659" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5659" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5660">
+      <c r="A5660" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5660" t="s">
+        <v>10747</v>
+      </c>
+      <c r="C5660" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5660" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5661">
+      <c r="A5661" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5661" t="s">
+        <v>10748</v>
+      </c>
+      <c r="C5661" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5661" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5662">
+      <c r="A5662" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5662" t="s">
+        <v>10749</v>
+      </c>
+      <c r="C5662" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5662" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5663">
+      <c r="A5663" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5663" t="s">
+        <v>10750</v>
+      </c>
+      <c r="C5663" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5663" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5664">
+      <c r="A5664" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5664" t="s">
+        <v>10751</v>
+      </c>
+      <c r="C5664" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5664" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5665">
+      <c r="A5665" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5665" t="s">
+        <v>10752</v>
+      </c>
+      <c r="C5665" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5665" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5666">
+      <c r="A5666" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5666" t="s">
+        <v>10753</v>
+      </c>
+      <c r="C5666" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5666" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5667">
+      <c r="A5667" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5667" t="s">
+        <v>10754</v>
+      </c>
+      <c r="C5667" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5667" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5668">
+      <c r="A5668" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5668" t="s">
+        <v>10755</v>
+      </c>
+      <c r="C5668" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5668" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5669">
+      <c r="A5669" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5669" t="s">
+        <v>10756</v>
+      </c>
+      <c r="C5669" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5669" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5670">
+      <c r="A5670" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5670" t="s">
+        <v>10757</v>
+      </c>
+      <c r="C5670" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5670" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5671">
+      <c r="A5671" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5671" t="s">
+        <v>10758</v>
+      </c>
+      <c r="C5671" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5671" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5672">
+      <c r="A5672" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5672" t="s">
+        <v>10759</v>
+      </c>
+      <c r="C5672" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5672" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5673">
+      <c r="A5673" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5673" t="s">
+        <v>10760</v>
+      </c>
+      <c r="C5673" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5673" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5674">
+      <c r="A5674" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5674" t="s">
+        <v>10761</v>
+      </c>
+      <c r="C5674" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5674" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5675">
+      <c r="A5675" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5675" t="s">
+        <v>10762</v>
+      </c>
+      <c r="C5675" t="s">
+        <v>10763</v>
+      </c>
+      <c r="D5675" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5676">
+      <c r="A5676" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5676" t="s">
+        <v>10764</v>
+      </c>
+      <c r="C5676" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5676" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5677">
+      <c r="A5677" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5677" t="s">
+        <v>10765</v>
+      </c>
+      <c r="C5677" t="s">
+        <v>10724</v>
+      </c>
+      <c r="D5677" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5678">
+      <c r="A5678" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5678" t="s">
+        <v>10766</v>
+      </c>
+      <c r="C5678" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5678" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5679">
+      <c r="A5679" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5679" t="s">
+        <v>10767</v>
+      </c>
+      <c r="C5679" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5679" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5680">
+      <c r="A5680" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5680" t="s">
+        <v>10768</v>
+      </c>
+      <c r="C5680" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5680" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5681">
+      <c r="A5681" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5681" t="s">
+        <v>10769</v>
+      </c>
+      <c r="C5681" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5681" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5682">
+      <c r="A5682" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5682" t="s">
+        <v>10770</v>
+      </c>
+      <c r="C5682" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5682" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5683">
+      <c r="A5683" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5683" t="s">
+        <v>10771</v>
+      </c>
+      <c r="C5683" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5683" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5684">
+      <c r="A5684" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5684" t="s">
+        <v>10772</v>
+      </c>
+      <c r="C5684" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5684" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5685">
+      <c r="A5685" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5685" t="s">
+        <v>10773</v>
+      </c>
+      <c r="C5685" t="s">
+        <v>10587</v>
+      </c>
+      <c r="D5685" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5686">
+      <c r="A5686" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5686" t="s">
+        <v>10774</v>
+      </c>
+      <c r="C5686" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5686" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5687">
+      <c r="A5687" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5687" t="s">
+        <v>10775</v>
+      </c>
+      <c r="C5687" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5687" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5688">
+      <c r="A5688" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5688" t="s">
+        <v>10776</v>
+      </c>
+      <c r="C5688" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5688" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5689">
+      <c r="A5689" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5689" t="s">
+        <v>10777</v>
+      </c>
+      <c r="C5689" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5689" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5690">
+      <c r="A5690" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5690" t="s">
+        <v>10778</v>
+      </c>
+      <c r="C5690" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5690" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5691">
+      <c r="A5691" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5691" t="s">
+        <v>10779</v>
+      </c>
+      <c r="C5691" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5691" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5692">
+      <c r="A5692" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5692" t="s">
+        <v>10780</v>
+      </c>
+      <c r="C5692" t="s">
+        <v>10612</v>
+      </c>
+      <c r="D5692" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5693">
+      <c r="A5693" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5693" t="s">
+        <v>10781</v>
+      </c>
+      <c r="C5693" t="s">
+        <v>684</v>
+      </c>
+      <c r="D5693" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5694">
+      <c r="A5694" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5694" t="s">
+        <v>10782</v>
+      </c>
+      <c r="C5694" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5694" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5695">
+      <c r="A5695" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5695" t="s">
+        <v>10783</v>
+      </c>
+      <c r="C5695" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5695" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5696">
+      <c r="A5696" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5696" t="s">
+        <v>10784</v>
+      </c>
+      <c r="C5696" t="s">
+        <v>10587</v>
+      </c>
+      <c r="D5696" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5697">
+      <c r="A5697" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5697" t="s">
+        <v>10785</v>
+      </c>
+      <c r="C5697" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5697" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5698">
+      <c r="A5698" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5698" t="s">
+        <v>10786</v>
+      </c>
+      <c r="C5698" t="s">
+        <v>10679</v>
+      </c>
+      <c r="D5698" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5699">
+      <c r="A5699" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5699" t="s">
+        <v>10787</v>
+      </c>
+      <c r="C5699" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5699" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5700">
+      <c r="A5700" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5700" t="s">
+        <v>10788</v>
+      </c>
+      <c r="C5700" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5700" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5701">
+      <c r="A5701" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5701" t="s">
+        <v>10789</v>
+      </c>
+      <c r="C5701" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5701" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5702">
+      <c r="A5702" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5702" t="s">
+        <v>10790</v>
+      </c>
+      <c r="C5702" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5702" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5703">
+      <c r="A5703" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5703" t="s">
+        <v>10791</v>
+      </c>
+      <c r="C5703" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5703" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5704">
+      <c r="A5704" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5704" t="s">
+        <v>10792</v>
+      </c>
+      <c r="C5704" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5704" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5705">
+      <c r="A5705" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5705" t="s">
+        <v>10793</v>
+      </c>
+      <c r="C5705" t="s">
+        <v>10672</v>
+      </c>
+      <c r="D5705" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5706">
+      <c r="A5706" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5706" t="s">
+        <v>10794</v>
+      </c>
+      <c r="C5706" t="s">
+        <v>10562</v>
+      </c>
+      <c r="D5706" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5707">
+      <c r="A5707" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5707" t="s">
+        <v>10795</v>
+      </c>
+      <c r="C5707" t="s">
+        <v>10672</v>
+      </c>
+      <c r="D5707" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5708">
+      <c r="A5708" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5708" t="s">
+        <v>10796</v>
+      </c>
+      <c r="C5708" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5708" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5709">
+      <c r="A5709" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5709" t="s">
+        <v>10797</v>
+      </c>
+      <c r="C5709" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5709" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5710">
+      <c r="A5710" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5710" t="s">
+        <v>10798</v>
+      </c>
+      <c r="C5710" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5710" t="s">
+        <v>10799</v>
+      </c>
+    </row>
+    <row r="5711">
+      <c r="A5711" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5711" t="s">
+        <v>10800</v>
+      </c>
+      <c r="C5711" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5711" t="s">
+        <v>10801</v>
+      </c>
+    </row>
+    <row r="5712">
+      <c r="A5712" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5712" t="s">
+        <v>10802</v>
+      </c>
+      <c r="C5712" t="s">
+        <v>10606</v>
+      </c>
+      <c r="D5712" t="s">
+        <v>10803</v>
+      </c>
+    </row>
+    <row r="5713">
+      <c r="A5713" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5713" t="s">
+        <v>10804</v>
+      </c>
+      <c r="C5713" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5713" t="s">
+        <v>10805</v>
+      </c>
+    </row>
+    <row r="5714">
+      <c r="A5714" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5714" t="s">
+        <v>10806</v>
+      </c>
+      <c r="C5714" t="s">
+        <v>10559</v>
+      </c>
+      <c r="D5714" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5715">
+      <c r="A5715" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5715" t="s">
+        <v>10807</v>
+      </c>
+      <c r="C5715" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5715" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5716">
+      <c r="A5716" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5716" t="s">
+        <v>10808</v>
+      </c>
+      <c r="C5716" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5716" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5717">
+      <c r="A5717" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5717" t="s">
+        <v>10809</v>
+      </c>
+      <c r="C5717" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5717" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5718">
+      <c r="A5718" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5718" t="s">
+        <v>10810</v>
+      </c>
+      <c r="C5718" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5718" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5719">
+      <c r="A5719" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5719" t="s">
+        <v>10811</v>
+      </c>
+      <c r="C5719" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5719" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5720">
+      <c r="A5720" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5720" t="s">
+        <v>10812</v>
+      </c>
+      <c r="C5720" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5720" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5721">
+      <c r="A5721" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5721" t="s">
+        <v>10813</v>
+      </c>
+      <c r="C5721" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5721" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5722">
+      <c r="A5722" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5722" t="s">
+        <v>10814</v>
+      </c>
+      <c r="C5722" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5722" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5723">
+      <c r="A5723" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5723" t="s">
+        <v>10815</v>
+      </c>
+      <c r="C5723" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5723" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5724">
+      <c r="A5724" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5724" t="s">
+        <v>10816</v>
+      </c>
+      <c r="C5724" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5724" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5725">
+      <c r="A5725" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5725" t="s">
+        <v>10817</v>
+      </c>
+      <c r="C5725" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5725" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5726">
+      <c r="A5726" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5726" t="s">
+        <v>10818</v>
+      </c>
+      <c r="C5726" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5726" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5727">
+      <c r="A5727" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5727" t="s">
+        <v>10819</v>
+      </c>
+      <c r="C5727" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5727" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5728">
+      <c r="A5728" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5728" t="s">
+        <v>10820</v>
+      </c>
+      <c r="C5728" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5728" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5729">
+      <c r="A5729" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5729" t="s">
+        <v>10821</v>
+      </c>
+      <c r="C5729" t="s">
+        <v>10421</v>
+      </c>
+      <c r="D5729" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5730">
+      <c r="A5730" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5730" t="s">
+        <v>10822</v>
+      </c>
+      <c r="C5730" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5730" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5731">
+      <c r="A5731" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5731" t="s">
+        <v>10823</v>
+      </c>
+      <c r="C5731" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5731" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5732">
+      <c r="A5732" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5732" t="s">
+        <v>10824</v>
+      </c>
+      <c r="C5732" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5732" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5733">
+      <c r="A5733" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5733" t="s">
+        <v>10825</v>
+      </c>
+      <c r="C5733" t="s">
+        <v>762</v>
+      </c>
+      <c r="D5733" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5734">
+      <c r="A5734" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5734" t="s">
+        <v>10826</v>
+      </c>
+      <c r="C5734" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5734" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5735">
+      <c r="A5735" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5735" t="s">
+        <v>10827</v>
+      </c>
+      <c r="C5735" t="s">
+        <v>747</v>
+      </c>
+      <c r="D5735" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5736">
+      <c r="A5736" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5736" t="s">
+        <v>10828</v>
+      </c>
+      <c r="C5736" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5736" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5737">
+      <c r="A5737" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5737" t="s">
+        <v>10829</v>
+      </c>
+      <c r="C5737" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5737" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5738">
+      <c r="A5738" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5738" t="s">
+        <v>10830</v>
+      </c>
+      <c r="C5738" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5738" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5739">
+      <c r="A5739" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5739" t="s">
+        <v>10831</v>
+      </c>
+      <c r="C5739" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5739" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5740">
+      <c r="A5740" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5740" t="s">
+        <v>10832</v>
+      </c>
+      <c r="C5740" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5740" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5741">
+      <c r="A5741" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5741" t="s">
+        <v>10833</v>
+      </c>
+      <c r="C5741" t="s">
+        <v>708</v>
+      </c>
+      <c r="D5741" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5742">
+      <c r="A5742" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5742" t="s">
+        <v>10834</v>
+      </c>
+      <c r="C5742" t="s">
+        <v>770</v>
+      </c>
+      <c r="D5742" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5743">
+      <c r="A5743" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5743" t="s">
+        <v>10835</v>
+      </c>
+      <c r="C5743" t="s">
+        <v>696</v>
+      </c>
+      <c r="D5743" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5744">
+      <c r="A5744" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5744" t="s">
+        <v>10836</v>
+      </c>
+      <c r="C5744" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5744" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5745">
+      <c r="A5745" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5745" t="s">
+        <v>10837</v>
+      </c>
+      <c r="C5745" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5745" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5746">
+      <c r="A5746" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5746" t="s">
+        <v>10838</v>
+      </c>
+      <c r="C5746" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5746" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5747">
+      <c r="A5747" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5747" t="s">
+        <v>10839</v>
+      </c>
+      <c r="C5747" t="s">
+        <v>10446</v>
+      </c>
+      <c r="D5747" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5748">
+      <c r="A5748" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5748" t="s">
+        <v>10840</v>
+      </c>
+      <c r="C5748" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5748" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5749">
+      <c r="A5749" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5749" t="s">
+        <v>10841</v>
+      </c>
+      <c r="C5749" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5749" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5750">
+      <c r="A5750" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5750" t="s">
+        <v>10842</v>
+      </c>
+      <c r="C5750" t="s">
+        <v>9616</v>
+      </c>
+      <c r="D5750" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5751">
+      <c r="A5751" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5751" t="s">
+        <v>10843</v>
+      </c>
+      <c r="C5751" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5751" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5752">
+      <c r="A5752" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5752" t="s">
+        <v>10844</v>
+      </c>
+      <c r="C5752" t="s">
+        <v>725</v>
+      </c>
+      <c r="D5752" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5753">
+      <c r="A5753" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5753" t="s">
+        <v>10845</v>
+      </c>
+      <c r="C5753" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5753" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5754">
+      <c r="A5754" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5754" t="s">
+        <v>10846</v>
+      </c>
+      <c r="C5754" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5754" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5755">
+      <c r="A5755" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5755" t="s">
+        <v>10847</v>
+      </c>
+      <c r="C5755" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5755" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5756">
+      <c r="A5756" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5756" t="s">
+        <v>10848</v>
+      </c>
+      <c r="C5756" t="s">
+        <v>714</v>
+      </c>
+      <c r="D5756" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5757">
+      <c r="A5757" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5757" t="s">
+        <v>10849</v>
+      </c>
+      <c r="C5757" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5757" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5758">
+      <c r="A5758" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5758" t="s">
+        <v>10850</v>
+      </c>
+      <c r="C5758" t="s">
+        <v>9616</v>
+      </c>
+      <c r="D5758" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5759">
+      <c r="A5759" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5759" t="s">
+        <v>10851</v>
+      </c>
+      <c r="C5759" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5759" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5760">
+      <c r="A5760" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5760" t="s">
+        <v>10852</v>
+      </c>
+      <c r="C5760" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5760" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5761">
+      <c r="A5761" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5761" t="s">
+        <v>10853</v>
+      </c>
+      <c r="C5761" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5761" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5762">
+      <c r="A5762" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5762" t="s">
+        <v>10854</v>
+      </c>
+      <c r="C5762" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5762" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5763">
+      <c r="A5763" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5763" t="s">
+        <v>10855</v>
+      </c>
+      <c r="C5763" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5763" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5764">
+      <c r="A5764" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5764" t="s">
+        <v>10856</v>
+      </c>
+      <c r="C5764" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5764" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5765">
+      <c r="A5765" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5765" t="s">
+        <v>10857</v>
+      </c>
+      <c r="C5765" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5765" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5766">
+      <c r="A5766" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5766" t="s">
+        <v>10858</v>
+      </c>
+      <c r="C5766" t="s">
+        <v>10528</v>
+      </c>
+      <c r="D5766" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5767">
+      <c r="A5767" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5767" t="s">
+        <v>10859</v>
+      </c>
+      <c r="C5767" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5767" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5768">
+      <c r="A5768" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5768" t="s">
+        <v>10860</v>
+      </c>
+      <c r="C5768" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5768" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5769">
+      <c r="A5769" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5769" t="s">
+        <v>10861</v>
+      </c>
+      <c r="C5769" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5769" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5770">
+      <c r="A5770" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5770" t="s">
+        <v>10862</v>
+      </c>
+      <c r="C5770" t="s">
+        <v>10423</v>
+      </c>
+      <c r="D5770" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5771">
+      <c r="A5771" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5771" t="s">
+        <v>10863</v>
+      </c>
+      <c r="C5771" t="s">
+        <v>10528</v>
+      </c>
+      <c r="D5771" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5772">
+      <c r="A5772" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5772" t="s">
+        <v>10864</v>
+      </c>
+      <c r="C5772" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5772" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5773">
+      <c r="A5773" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5773" t="s">
+        <v>10865</v>
+      </c>
+      <c r="C5773" t="s">
+        <v>10612</v>
+      </c>
+      <c r="D5773" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5774">
+      <c r="A5774" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5774" t="s">
+        <v>10866</v>
+      </c>
+      <c r="C5774" t="s">
+        <v>10672</v>
+      </c>
+      <c r="D5774" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5775">
+      <c r="A5775" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5775" t="s">
+        <v>10867</v>
+      </c>
+      <c r="C5775" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5775" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5776">
+      <c r="A5776" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5776" t="s">
+        <v>10868</v>
+      </c>
+      <c r="C5776" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5776" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5777">
+      <c r="A5777" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5777" t="s">
+        <v>10869</v>
+      </c>
+      <c r="C5777" t="s">
+        <v>747</v>
+      </c>
+      <c r="D5777" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5778">
+      <c r="A5778" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5778" t="s">
+        <v>10870</v>
+      </c>
+      <c r="C5778" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5778" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5779">
+      <c r="A5779" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5779" t="s">
+        <v>10871</v>
+      </c>
+      <c r="C5779" t="s">
+        <v>10715</v>
+      </c>
+      <c r="D5779" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5780">
+      <c r="A5780" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5780" t="s">
+        <v>10872</v>
+      </c>
+      <c r="C5780" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5780" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5781">
+      <c r="A5781" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5781" t="s">
+        <v>10873</v>
+      </c>
+      <c r="C5781" t="s">
+        <v>10715</v>
+      </c>
+      <c r="D5781" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5782">
+      <c r="A5782" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5782" t="s">
+        <v>10874</v>
+      </c>
+      <c r="C5782" t="s">
+        <v>675</v>
+      </c>
+      <c r="D5782" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5783">
+      <c r="A5783" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5783" t="s">
+        <v>10875</v>
+      </c>
+      <c r="C5783" t="s">
+        <v>10569</v>
+      </c>
+      <c r="D5783" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5784">
+      <c r="A5784" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5784" t="s">
+        <v>10876</v>
+      </c>
+      <c r="C5784" t="s">
+        <v>687</v>
+      </c>
+      <c r="D5784" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5785">
+      <c r="A5785" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5785" t="s">
+        <v>10877</v>
+      </c>
+      <c r="C5785" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5785" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5786">
+      <c r="A5786" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5786" t="s">
+        <v>10878</v>
+      </c>
+      <c r="C5786" t="s">
+        <v>762</v>
+      </c>
+      <c r="D5786" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5787">
+      <c r="A5787" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5787" t="s">
+        <v>10879</v>
+      </c>
+      <c r="C5787" t="s">
+        <v>690</v>
+      </c>
+      <c r="D5787" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5788">
+      <c r="A5788" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5788" t="s">
+        <v>10880</v>
+      </c>
+      <c r="C5788" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5788" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5789">
+      <c r="A5789" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5789" t="s">
+        <v>10881</v>
+      </c>
+      <c r="C5789" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5789" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5790">
+      <c r="A5790" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5790" t="s">
+        <v>10882</v>
+      </c>
+      <c r="C5790" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5790" t="s">
+        <v>10883</v>
+      </c>
+    </row>
+    <row r="5791">
+      <c r="A5791" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5791" t="s">
+        <v>10884</v>
+      </c>
+      <c r="C5791" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5791" t="s">
+        <v>10885</v>
+      </c>
+    </row>
+    <row r="5792">
+      <c r="A5792" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5792" t="s">
+        <v>10886</v>
+      </c>
+      <c r="C5792" t="s">
+        <v>727</v>
+      </c>
+      <c r="D5792" t="s">
+        <v>10887</v>
+      </c>
+    </row>
+    <row r="5793">
+      <c r="A5793" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5793" t="s">
+        <v>10888</v>
+      </c>
+      <c r="C5793" t="s">
+        <v>720</v>
+      </c>
+      <c r="D5793" t="s">
+        <v>10889</v>
+      </c>
+    </row>
+    <row r="5794">
+      <c r="A5794" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5794" t="s">
+        <v>10890</v>
+      </c>
+      <c r="C5794" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5794" t="s">
+        <v>10891</v>
+      </c>
+    </row>
+    <row r="5795">
+      <c r="A5795" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5795" t="s">
+        <v>10892</v>
+      </c>
+      <c r="C5795" t="s">
+        <v>952</v>
+      </c>
+      <c r="D5795" t="s">
+        <v>10893</v>
+      </c>
+    </row>
+    <row r="5796">
+      <c r="A5796" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5796" t="s">
+        <v>10894</v>
+      </c>
+      <c r="C5796" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5796" t="s">
+        <v>10895</v>
+      </c>
+    </row>
+    <row r="5797">
+      <c r="A5797" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5797" t="s">
+        <v>10896</v>
+      </c>
+      <c r="C5797" t="s">
+        <v>795</v>
+      </c>
+      <c r="D5797" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5798">
+      <c r="A5798" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5798" t="s">
+        <v>10897</v>
+      </c>
+      <c r="C5798" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5798" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5799">
+      <c r="A5799" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5799" t="s">
+        <v>10898</v>
+      </c>
+      <c r="C5799" t="s">
+        <v>921</v>
+      </c>
+      <c r="D5799" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5800">
+      <c r="A5800" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5800" t="s">
+        <v>10899</v>
+      </c>
+      <c r="C5800" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5800" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5801">
+      <c r="A5801" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5801" t="s">
+        <v>10900</v>
+      </c>
+      <c r="C5801" t="s">
+        <v>822</v>
+      </c>
+      <c r="D5801" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5802">
+      <c r="A5802" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5802" t="s">
+        <v>10901</v>
+      </c>
+      <c r="C5802" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5802" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5803">
+      <c r="A5803" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5803" t="s">
+        <v>10902</v>
+      </c>
+      <c r="C5803" t="s">
+        <v>933</v>
+      </c>
+      <c r="D5803" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5804">
+      <c r="A5804" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5804" t="s">
+        <v>10903</v>
+      </c>
+      <c r="C5804" t="s">
+        <v>962</v>
+      </c>
+      <c r="D5804" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5805">
+      <c r="A5805" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5805" t="s">
+        <v>10904</v>
+      </c>
+      <c r="C5805" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5805" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5806">
+      <c r="A5806" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5806" t="s">
+        <v>10905</v>
+      </c>
+      <c r="C5806" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5806" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5807">
+      <c r="A5807" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5807" t="s">
+        <v>10906</v>
+      </c>
+      <c r="C5807" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5807" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5808">
+      <c r="A5808" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5808" t="s">
+        <v>10907</v>
+      </c>
+      <c r="C5808" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5808" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5809">
+      <c r="A5809" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5809" t="s">
+        <v>10908</v>
+      </c>
+      <c r="C5809" t="s">
+        <v>921</v>
+      </c>
+      <c r="D5809" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5810">
+      <c r="A5810" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5810" t="s">
+        <v>10909</v>
+      </c>
+      <c r="C5810" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5810" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5811">
+      <c r="A5811" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5811" t="s">
+        <v>10910</v>
+      </c>
+      <c r="C5811" t="s">
+        <v>818</v>
+      </c>
+      <c r="D5811" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5812">
+      <c r="A5812" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5812" t="s">
+        <v>10911</v>
+      </c>
+      <c r="C5812" t="s">
+        <v>921</v>
+      </c>
+      <c r="D5812" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5813">
+      <c r="A5813" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5813" t="s">
+        <v>10912</v>
+      </c>
+      <c r="C5813" t="s">
+        <v>795</v>
+      </c>
+      <c r="D5813" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5814">
+      <c r="A5814" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5814" t="s">
+        <v>10913</v>
+      </c>
+      <c r="C5814" t="s">
+        <v>952</v>
+      </c>
+      <c r="D5814" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5815">
+      <c r="A5815" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5815" t="s">
+        <v>10914</v>
+      </c>
+      <c r="C5815" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5815" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5816">
+      <c r="A5816" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5816" t="s">
+        <v>10915</v>
+      </c>
+      <c r="C5816" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5816" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5817">
+      <c r="A5817" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5817" t="s">
+        <v>10916</v>
+      </c>
+      <c r="C5817" t="s">
+        <v>735</v>
+      </c>
+      <c r="D5817" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5818">
+      <c r="A5818" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5818" t="s">
+        <v>10917</v>
+      </c>
+      <c r="C5818" t="s">
+        <v>737</v>
+      </c>
+      <c r="D5818" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5819">
+      <c r="A5819" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5819" t="s">
+        <v>10918</v>
+      </c>
+      <c r="C5819" t="s">
+        <v>952</v>
+      </c>
+      <c r="D5819" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5820">
+      <c r="A5820" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5820" t="s">
+        <v>10919</v>
+      </c>
+      <c r="C5820" t="s">
+        <v>808</v>
+      </c>
+      <c r="D5820" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5821">
+      <c r="A5821" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5821" t="s">
+        <v>10920</v>
+      </c>
+      <c r="C5821" t="s">
+        <v>797</v>
+      </c>
+      <c r="D5821" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5822">
+      <c r="A5822" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5822" t="s">
+        <v>10921</v>
+      </c>
+      <c r="C5822" t="s">
+        <v>789</v>
+      </c>
+      <c r="D5822" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5823">
+      <c r="A5823" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5823" t="s">
+        <v>10922</v>
+      </c>
+      <c r="C5823" t="s">
+        <v>9616</v>
+      </c>
+      <c r="D5823" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5824">
+      <c r="A5824" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5824" t="s">
+        <v>10923</v>
+      </c>
+      <c r="C5824" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5824" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5825">
+      <c r="A5825" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5825" t="s">
+        <v>10924</v>
+      </c>
+      <c r="C5825" t="s">
+        <v>705</v>
+      </c>
+      <c r="D5825" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5826">
+      <c r="A5826" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5826" t="s">
+        <v>10925</v>
+      </c>
+      <c r="C5826" t="s">
+        <v>10528</v>
+      </c>
+      <c r="D5826" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5827">
+      <c r="A5827" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5827" t="s">
+        <v>10926</v>
+      </c>
+      <c r="C5827" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5827" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5828">
+      <c r="A5828" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5828" t="s">
+        <v>10927</v>
+      </c>
+      <c r="C5828" t="s">
+        <v>10657</v>
+      </c>
+      <c r="D5828" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5829">
+      <c r="A5829" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5829" t="s">
+        <v>10928</v>
+      </c>
+      <c r="C5829" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5829" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5830">
+      <c r="A5830" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5830" t="s">
+        <v>10929</v>
+      </c>
+      <c r="C5830" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5830" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5831">
+      <c r="A5831" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5831" t="s">
+        <v>10930</v>
+      </c>
+      <c r="C5831" t="s">
+        <v>10446</v>
+      </c>
+      <c r="D5831" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5832">
+      <c r="A5832" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5832" t="s">
+        <v>10931</v>
+      </c>
+      <c r="C5832" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5832" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5833">
+      <c r="A5833" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5833" t="s">
+        <v>10932</v>
+      </c>
+      <c r="C5833" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5833" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5834">
+      <c r="A5834" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5834" t="s">
+        <v>10933</v>
+      </c>
+      <c r="C5834" t="s">
+        <v>741</v>
+      </c>
+      <c r="D5834" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5835">
+      <c r="A5835" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5835" t="s">
+        <v>10934</v>
+      </c>
+      <c r="C5835" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5835" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5836">
+      <c r="A5836" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5836" t="s">
+        <v>10935</v>
+      </c>
+      <c r="C5836" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5836" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5837">
+      <c r="A5837" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5837" t="s">
+        <v>10936</v>
+      </c>
+      <c r="C5837" t="s">
+        <v>710</v>
+      </c>
+      <c r="D5837" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5838">
+      <c r="A5838" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5838" t="s">
+        <v>10937</v>
+      </c>
+      <c r="C5838" t="s">
+        <v>712</v>
+      </c>
+      <c r="D5838" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5839">
+      <c r="A5839" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5839" t="s">
+        <v>10938</v>
+      </c>
+      <c r="C5839" t="s">
+        <v>716</v>
+      </c>
+      <c r="D5839" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5840">
+      <c r="A5840" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5840" t="s">
+        <v>10939</v>
+      </c>
+      <c r="C5840" t="s">
+        <v>723</v>
+      </c>
+      <c r="D5840" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5841">
+      <c r="A5841" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5841" t="s">
+        <v>10940</v>
+      </c>
+      <c r="C5841" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5841" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5842">
+      <c r="A5842" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5842" t="s">
+        <v>10941</v>
+      </c>
+      <c r="C5842" t="s">
+        <v>733</v>
+      </c>
+      <c r="D5842" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5843">
+      <c r="A5843" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5843" t="s">
+        <v>10942</v>
+      </c>
+      <c r="C5843" t="s">
+        <v>782</v>
+      </c>
+      <c r="D5843" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5844">
+      <c r="A5844" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5844" t="s">
+        <v>10943</v>
+      </c>
+      <c r="C5844" t="s">
+        <v>10512</v>
+      </c>
+      <c r="D5844" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5845">
+      <c r="A5845" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5845" t="s">
+        <v>10944</v>
+      </c>
+      <c r="C5845" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5845" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5846">
+      <c r="A5846" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5846" t="s">
+        <v>10945</v>
+      </c>
+      <c r="C5846" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5846" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5847">
+      <c r="A5847" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5847" t="s">
+        <v>10946</v>
+      </c>
+      <c r="C5847" t="s">
+        <v>693</v>
+      </c>
+      <c r="D5847" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5848">
+      <c r="A5848" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5848" t="s">
+        <v>10947</v>
+      </c>
+      <c r="C5848" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5848" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5849">
+      <c r="A5849" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5849" t="s">
+        <v>10948</v>
+      </c>
+      <c r="C5849" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5849" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5850">
+      <c r="A5850" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5850" t="s">
+        <v>10949</v>
+      </c>
+      <c r="C5850" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5850" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5851">
+      <c r="A5851" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5851" t="s">
+        <v>10950</v>
+      </c>
+      <c r="C5851" t="s">
+        <v>773</v>
+      </c>
+      <c r="D5851" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5852">
+      <c r="A5852" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5852" t="s">
+        <v>10951</v>
+      </c>
+      <c r="C5852" t="s">
+        <v>10423</v>
+      </c>
+      <c r="D5852" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5853">
+      <c r="A5853" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5853" t="s">
+        <v>10952</v>
+      </c>
+      <c r="C5853" t="s">
+        <v>743</v>
+      </c>
+      <c r="D5853" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5854">
+      <c r="A5854" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5854" t="s">
+        <v>10953</v>
+      </c>
+      <c r="C5854" t="s">
+        <v>702</v>
+      </c>
+      <c r="D5854" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5855">
+      <c r="A5855" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5855" t="s">
+        <v>10954</v>
+      </c>
+      <c r="C5855" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5855" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5856">
+      <c r="A5856" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5856" t="s">
+        <v>10955</v>
+      </c>
+      <c r="C5856" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5856" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5857">
+      <c r="A5857" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5857" t="s">
+        <v>10956</v>
+      </c>
+      <c r="C5857" t="s">
+        <v>10576</v>
+      </c>
+      <c r="D5857" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5858">
+      <c r="A5858" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5858" t="s">
+        <v>10957</v>
+      </c>
+      <c r="C5858" t="s">
+        <v>762</v>
+      </c>
+      <c r="D5858" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5859">
+      <c r="A5859" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5859" t="s">
+        <v>10958</v>
+      </c>
+      <c r="C5859" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5859" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5860">
+      <c r="A5860" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5860" t="s">
+        <v>10959</v>
+      </c>
+      <c r="C5860" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5860" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5861">
+      <c r="A5861" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5861" t="s">
+        <v>10960</v>
+      </c>
+      <c r="C5861" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5861" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5862">
+      <c r="A5862" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5862" t="s">
+        <v>10961</v>
+      </c>
+      <c r="C5862" t="s">
+        <v>699</v>
+      </c>
+      <c r="D5862" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5863">
+      <c r="A5863" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5863" t="s">
+        <v>10962</v>
+      </c>
+      <c r="C5863" t="s">
+        <v>770</v>
+      </c>
+      <c r="D5863" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5864">
+      <c r="A5864" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5864" t="s">
+        <v>10963</v>
+      </c>
+      <c r="C5864" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5864" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5865">
+      <c r="A5865" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5865" t="s">
+        <v>10964</v>
+      </c>
+      <c r="C5865" t="s">
+        <v>10525</v>
+      </c>
+      <c r="D5865" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5866">
+      <c r="A5866" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5866" t="s">
+        <v>10965</v>
+      </c>
+      <c r="C5866" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5866" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5867">
+      <c r="A5867" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5867" t="s">
+        <v>10966</v>
+      </c>
+      <c r="C5867" t="s">
+        <v>10587</v>
+      </c>
+      <c r="D5867" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5868">
+      <c r="A5868" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5868" t="s">
+        <v>10967</v>
+      </c>
+      <c r="C5868" t="s">
+        <v>10569</v>
+      </c>
+      <c r="D5868" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5869">
+      <c r="A5869" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5869" t="s">
+        <v>10968</v>
+      </c>
+      <c r="C5869" t="s">
+        <v>764</v>
+      </c>
+      <c r="D5869" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5870">
+      <c r="A5870" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5870" t="s">
+        <v>10969</v>
+      </c>
+      <c r="C5870" t="s">
+        <v>747</v>
+      </c>
+      <c r="D5870" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5871">
+      <c r="A5871" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5871" t="s">
+        <v>10970</v>
+      </c>
+      <c r="C5871" t="s">
+        <v>745</v>
+      </c>
+      <c r="D5871" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5872">
+      <c r="A5872" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5872" t="s">
+        <v>10971</v>
+      </c>
+      <c r="C5872" t="s">
+        <v>10427</v>
+      </c>
+      <c r="D5872" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5873">
+      <c r="A5873" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5873" t="s">
+        <v>10972</v>
+      </c>
+      <c r="C5873" t="s">
+        <v>10528</v>
+      </c>
+      <c r="D5873" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5874">
+      <c r="A5874" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5874" t="s">
+        <v>10973</v>
+      </c>
+      <c r="C5874" t="s">
+        <v>751</v>
+      </c>
+      <c r="D5874" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5875">
+      <c r="A5875" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5875" t="s">
+        <v>10974</v>
+      </c>
+      <c r="C5875" t="s">
+        <v>10612</v>
+      </c>
+      <c r="D5875" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5876">
+      <c r="A5876" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5876" t="s">
+        <v>10975</v>
+      </c>
+      <c r="C5876" t="s">
+        <v>10601</v>
+      </c>
+      <c r="D5876" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5877">
+      <c r="A5877" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5877" t="s">
+        <v>10976</v>
+      </c>
+      <c r="C5877" t="s">
+        <v>670</v>
+      </c>
+      <c r="D5877" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5878">
+      <c r="A5878" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5878" t="s">
+        <v>10977</v>
+      </c>
+      <c r="C5878" t="s">
+        <v>10601</v>
+      </c>
+      <c r="D5878" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5879">
+      <c r="A5879" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5879" t="s">
+        <v>10978</v>
+      </c>
+      <c r="C5879" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5879" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5880">
+      <c r="A5880" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5880" t="s">
+        <v>10979</v>
+      </c>
+      <c r="C5880" t="s">
+        <v>10669</v>
+      </c>
+      <c r="D5880" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5881">
+      <c r="A5881" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5881" t="s">
+        <v>10980</v>
+      </c>
+      <c r="C5881" t="s">
+        <v>10612</v>
+      </c>
+      <c r="D5881" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5882">
+      <c r="A5882" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5882" t="s">
+        <v>10981</v>
+      </c>
+      <c r="C5882" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5882" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5883">
+      <c r="A5883" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5883" t="s">
+        <v>10982</v>
+      </c>
+      <c r="C5883" t="s">
+        <v>678</v>
+      </c>
+      <c r="D5883" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5884">
+      <c r="A5884" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5884" t="s">
+        <v>10983</v>
+      </c>
+      <c r="C5884" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5884" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5885">
+      <c r="A5885" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5885" t="s">
+        <v>10984</v>
+      </c>
+      <c r="C5885" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5885" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5886">
+      <c r="A5886" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5886" t="s">
+        <v>10985</v>
+      </c>
+      <c r="C5886" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5886" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5887">
+      <c r="A5887" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5887" t="s">
+        <v>10986</v>
+      </c>
+      <c r="C5887" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5887" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5888">
+      <c r="A5888" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5888" t="s">
+        <v>10987</v>
+      </c>
+      <c r="C5888" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5888" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5889">
+      <c r="A5889" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5889" t="s">
+        <v>10988</v>
+      </c>
+      <c r="C5889" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5889" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5890">
+      <c r="A5890" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5890" t="s">
+        <v>10989</v>
+      </c>
+      <c r="C5890" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5890" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5891">
+      <c r="A5891" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5891" t="s">
+        <v>10990</v>
+      </c>
+      <c r="C5891" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5891" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5892">
+      <c r="A5892" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5892" t="s">
+        <v>10991</v>
+      </c>
+      <c r="C5892" t="s">
+        <v>10763</v>
+      </c>
+      <c r="D5892" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5893">
+      <c r="A5893" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5893" t="s">
+        <v>10992</v>
+      </c>
+      <c r="C5893" t="s">
+        <v>10679</v>
+      </c>
+      <c r="D5893" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5894">
+      <c r="A5894" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5894" t="s">
+        <v>10993</v>
+      </c>
+      <c r="C5894" t="s">
+        <v>10679</v>
+      </c>
+      <c r="D5894" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5895">
+      <c r="A5895" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5895" t="s">
+        <v>10994</v>
+      </c>
+      <c r="C5895" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5895" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5896">
+      <c r="A5896" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5896" t="s">
+        <v>10995</v>
+      </c>
+      <c r="C5896" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5896" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5897">
+      <c r="A5897" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5897" t="s">
+        <v>10996</v>
+      </c>
+      <c r="C5897" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5897" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5898">
+      <c r="A5898" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5898" t="s">
+        <v>10997</v>
+      </c>
+      <c r="C5898" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5898" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5899">
+      <c r="A5899" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5899" t="s">
+        <v>10998</v>
+      </c>
+      <c r="C5899" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5899" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5900">
+      <c r="A5900" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5900" t="s">
+        <v>10999</v>
+      </c>
+      <c r="C5900" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5900" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5901">
+      <c r="A5901" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5901" t="s">
+        <v>11000</v>
+      </c>
+      <c r="C5901" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5901" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5902">
+      <c r="A5902" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5902" t="s">
+        <v>11001</v>
+      </c>
+      <c r="C5902" t="s">
+        <v>10715</v>
+      </c>
+      <c r="D5902" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="5903">
+      <c r="A5903" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5903" t="s">
+        <v>11002</v>
+      </c>
+      <c r="C5903" t="s">
+        <v>10609</v>
+      </c>
+      <c r="D5903" t="s">
+        <v>706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
